--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.47086066666667</v>
+        <v>8.459557</v>
       </c>
       <c r="H2">
-        <v>31.412582</v>
+        <v>25.378671</v>
       </c>
       <c r="I2">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="J2">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N2">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O2">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P2">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q2">
-        <v>233.9691024393282</v>
+        <v>162.5347573135164</v>
       </c>
       <c r="R2">
-        <v>2105.721921953954</v>
+        <v>1462.812815821647</v>
       </c>
       <c r="S2">
-        <v>0.01077221175910876</v>
+        <v>0.01349135279592863</v>
       </c>
       <c r="T2">
-        <v>0.01077221175910877</v>
+        <v>0.01349135279592862</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.47086066666667</v>
+        <v>8.459557</v>
       </c>
       <c r="H3">
-        <v>31.412582</v>
+        <v>25.378671</v>
       </c>
       <c r="I3">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="J3">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q3">
-        <v>968.0010242437938</v>
+        <v>782.0617713611147</v>
       </c>
       <c r="R3">
-        <v>8712.009218194144</v>
+        <v>7038.555942250032</v>
       </c>
       <c r="S3">
-        <v>0.04456790194719125</v>
+        <v>0.06491578441458838</v>
       </c>
       <c r="T3">
-        <v>0.04456790194719125</v>
+        <v>0.06491578441458837</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.47086066666667</v>
+        <v>8.459557</v>
       </c>
       <c r="H4">
-        <v>31.412582</v>
+        <v>25.378671</v>
       </c>
       <c r="I4">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="J4">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N4">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q4">
-        <v>2554.51954361628</v>
+        <v>1411.544776005261</v>
       </c>
       <c r="R4">
-        <v>22990.67589254652</v>
+        <v>12703.90298404735</v>
       </c>
       <c r="S4">
-        <v>0.1176130744603435</v>
+        <v>0.117166622543407</v>
       </c>
       <c r="T4">
-        <v>0.1176130744603435</v>
+        <v>0.117166622543407</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.47086066666667</v>
+        <v>8.459557</v>
       </c>
       <c r="H5">
-        <v>31.412582</v>
+        <v>25.378671</v>
       </c>
       <c r="I5">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="J5">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N5">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q5">
-        <v>685.4091958732238</v>
+        <v>347.6806528338919</v>
       </c>
       <c r="R5">
-        <v>6168.682762859014</v>
+        <v>3129.125875505028</v>
       </c>
       <c r="S5">
-        <v>0.03155704288561541</v>
+        <v>0.02885956471853508</v>
       </c>
       <c r="T5">
-        <v>0.03155704288561541</v>
+        <v>0.02885956471853508</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.47086066666667</v>
+        <v>8.459557</v>
       </c>
       <c r="H6">
-        <v>31.412582</v>
+        <v>25.378671</v>
       </c>
       <c r="I6">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="J6">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N6">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q6">
-        <v>2948.423789922786</v>
+        <v>947.6768846062224</v>
       </c>
       <c r="R6">
-        <v>26535.81410930508</v>
+        <v>8529.091961456003</v>
       </c>
       <c r="S6">
-        <v>0.1357488877356291</v>
+        <v>0.07866282509720064</v>
       </c>
       <c r="T6">
-        <v>0.1357488877356291</v>
+        <v>0.07866282509720063</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>38.529407</v>
       </c>
       <c r="I7">
-        <v>0.417348120993043</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="J7">
-        <v>0.4173481209930429</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N7">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O7">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P7">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q7">
-        <v>286.9770709491365</v>
+        <v>246.7571220013333</v>
       </c>
       <c r="R7">
-        <v>2582.793638542229</v>
+        <v>2220.814098011999</v>
       </c>
       <c r="S7">
-        <v>0.01321276077072835</v>
+        <v>0.02048231063222034</v>
       </c>
       <c r="T7">
-        <v>0.01321276077072835</v>
+        <v>0.02048231063222034</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>38.529407</v>
       </c>
       <c r="I8">
-        <v>0.417348120993043</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="J8">
-        <v>0.4173481209930429</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q8">
         <v>1187.31104114606</v>
@@ -948,10 +948,10 @@
         <v>10685.79937031454</v>
       </c>
       <c r="S8">
-        <v>0.05466519222327614</v>
+        <v>0.09855388717691058</v>
       </c>
       <c r="T8">
-        <v>0.05466519222327614</v>
+        <v>0.09855388717691055</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>38.529407</v>
       </c>
       <c r="I9">
-        <v>0.417348120993043</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="J9">
-        <v>0.4173481209930429</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N9">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q9">
-        <v>3133.27071252678</v>
+        <v>2142.979952473892</v>
       </c>
       <c r="R9">
-        <v>28199.43641274102</v>
+        <v>19286.81957226503</v>
       </c>
       <c r="S9">
-        <v>0.1442594567490148</v>
+        <v>0.1778800980867085</v>
       </c>
       <c r="T9">
-        <v>0.1442594567490148</v>
+        <v>0.1778800980867084</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>38.529407</v>
       </c>
       <c r="I10">
-        <v>0.417348120993043</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="J10">
-        <v>0.4173481209930429</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N10">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q10">
-        <v>840.6952943041155</v>
+        <v>527.8420362934972</v>
       </c>
       <c r="R10">
-        <v>7566.257648737038</v>
+        <v>4750.578326641476</v>
       </c>
       <c r="S10">
-        <v>0.03870659689981328</v>
+        <v>0.04381403245596582</v>
       </c>
       <c r="T10">
-        <v>0.03870659689981328</v>
+        <v>0.04381403245596582</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>38.529407</v>
       </c>
       <c r="I11">
-        <v>0.417348120993043</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="J11">
-        <v>0.4173481209930429</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N11">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q11">
-        <v>3616.417784772278</v>
+        <v>1438.744699889335</v>
       </c>
       <c r="R11">
-        <v>32547.7600629505</v>
+        <v>12948.70229900402</v>
       </c>
       <c r="S11">
-        <v>0.1665041143502105</v>
+        <v>0.1194243782087666</v>
       </c>
       <c r="T11">
-        <v>0.1665041143502104</v>
+        <v>0.1194243782087666</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.820871333333334</v>
+        <v>1.955432333333333</v>
       </c>
       <c r="H12">
-        <v>5.462614</v>
+        <v>5.866296999999999</v>
       </c>
       <c r="I12">
-        <v>0.0591706923651924</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="J12">
-        <v>0.05917069236519239</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N12">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O12">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P12">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q12">
-        <v>40.68697360033978</v>
+        <v>37.57001929785879</v>
       </c>
       <c r="R12">
-        <v>366.182762403058</v>
+        <v>338.130173680729</v>
       </c>
       <c r="S12">
-        <v>0.001873275962041967</v>
+        <v>0.003118535341456521</v>
       </c>
       <c r="T12">
-        <v>0.001873275962041967</v>
+        <v>0.003118535341456521</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.820871333333334</v>
+        <v>1.955432333333333</v>
       </c>
       <c r="H13">
-        <v>5.462614</v>
+        <v>5.866296999999999</v>
       </c>
       <c r="I13">
-        <v>0.0591706923651924</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="J13">
-        <v>0.05917069236519239</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>277.341392</v>
       </c>
       <c r="O13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q13">
-        <v>168.3343300798542</v>
+        <v>180.7741084294915</v>
       </c>
       <c r="R13">
-        <v>1515.008970718688</v>
+        <v>1626.966975865424</v>
       </c>
       <c r="S13">
-        <v>0.007750309895803987</v>
+        <v>0.01500532755887598</v>
       </c>
       <c r="T13">
-        <v>0.007750309895803986</v>
+        <v>0.01500532755887597</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.820871333333334</v>
+        <v>1.955432333333333</v>
       </c>
       <c r="H14">
-        <v>5.462614</v>
+        <v>5.866296999999999</v>
       </c>
       <c r="I14">
-        <v>0.0591706923651924</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="J14">
-        <v>0.05917069236519239</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N14">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q14">
-        <v>444.2281829055601</v>
+        <v>326.2795315343872</v>
       </c>
       <c r="R14">
-        <v>3998.05364615004</v>
+        <v>2936.515783809484</v>
       </c>
       <c r="S14">
-        <v>0.02045278631123398</v>
+        <v>0.0270831442011491</v>
       </c>
       <c r="T14">
-        <v>0.02045278631123398</v>
+        <v>0.0270831442011491</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.820871333333334</v>
+        <v>1.955432333333333</v>
       </c>
       <c r="H15">
-        <v>5.462614</v>
+        <v>5.866296999999999</v>
       </c>
       <c r="I15">
-        <v>0.0591706923651924</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="J15">
-        <v>0.05917069236519239</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N15">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q15">
-        <v>119.1919170829642</v>
+        <v>80.36661851511064</v>
       </c>
       <c r="R15">
-        <v>1072.727253746678</v>
+        <v>723.2995666359958</v>
       </c>
       <c r="S15">
-        <v>0.00548773559160349</v>
+        <v>0.006670907941934713</v>
       </c>
       <c r="T15">
-        <v>0.005487735591603489</v>
+        <v>0.006670907941934713</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.820871333333334</v>
+        <v>1.955432333333333</v>
       </c>
       <c r="H16">
-        <v>5.462614</v>
+        <v>5.866296999999999</v>
       </c>
       <c r="I16">
-        <v>0.0591706923651924</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="J16">
-        <v>0.05917069236519239</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N16">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q16">
-        <v>512.7277048656896</v>
+        <v>219.0561540884008</v>
       </c>
       <c r="R16">
-        <v>4614.549343791206</v>
+        <v>1971.505386795607</v>
       </c>
       <c r="S16">
-        <v>0.02360658460450898</v>
+        <v>0.01818296532861129</v>
       </c>
       <c r="T16">
-        <v>0.02360658460450898</v>
+        <v>0.01818296532861129</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.468428</v>
+        <v>2.929608</v>
       </c>
       <c r="H17">
-        <v>10.405284</v>
+        <v>8.788824000000002</v>
       </c>
       <c r="I17">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="J17">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N17">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O17">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P17">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q17">
-        <v>77.50126869883866</v>
+        <v>56.28700478095202</v>
       </c>
       <c r="R17">
-        <v>697.5114182895479</v>
+        <v>506.5830430285682</v>
       </c>
       <c r="S17">
-        <v>0.003568249265904544</v>
+        <v>0.00467215660131788</v>
       </c>
       <c r="T17">
-        <v>0.003568249265904544</v>
+        <v>0.004672156601317879</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.468428</v>
+        <v>2.929608</v>
       </c>
       <c r="H18">
-        <v>10.405284</v>
+        <v>8.788824000000002</v>
       </c>
       <c r="I18">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="J18">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>277.341392</v>
       </c>
       <c r="O18">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P18">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q18">
-        <v>320.6462165239253</v>
+        <v>270.833853578112</v>
       </c>
       <c r="R18">
-        <v>2885.815948715328</v>
+        <v>2437.504682203009</v>
       </c>
       <c r="S18">
-        <v>0.01476292770344946</v>
+        <v>0.02248082273661061</v>
       </c>
       <c r="T18">
-        <v>0.01476292770344946</v>
+        <v>0.02248082273661061</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.468428</v>
+        <v>2.929608</v>
       </c>
       <c r="H19">
-        <v>10.405284</v>
+        <v>8.788824000000002</v>
       </c>
       <c r="I19">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="J19">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N19">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O19">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P19">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q19">
-        <v>846.17371901736</v>
+        <v>488.82853654668</v>
       </c>
       <c r="R19">
-        <v>7615.56347115624</v>
+        <v>4399.456828920121</v>
       </c>
       <c r="S19">
-        <v>0.03895882999598762</v>
+        <v>0.04057567964092511</v>
       </c>
       <c r="T19">
-        <v>0.03895882999598763</v>
+        <v>0.04057567964092511</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.468428</v>
+        <v>2.929608</v>
       </c>
       <c r="H20">
-        <v>10.405284</v>
+        <v>8.788824000000002</v>
       </c>
       <c r="I20">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="J20">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N20">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O20">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P20">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q20">
-        <v>227.0388769465853</v>
+        <v>120.404416210848</v>
       </c>
       <c r="R20">
-        <v>2043.349892519268</v>
+        <v>1083.639745897632</v>
       </c>
       <c r="S20">
-        <v>0.01045313605309515</v>
+        <v>0.009994283586710053</v>
       </c>
       <c r="T20">
-        <v>0.01045313605309515</v>
+        <v>0.009994283586710053</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.468428</v>
+        <v>2.929608</v>
       </c>
       <c r="H21">
-        <v>10.405284</v>
+        <v>8.788824000000002</v>
       </c>
       <c r="I21">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="J21">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N21">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O21">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P21">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q21">
-        <v>976.6528229517373</v>
+        <v>328.1876087078161</v>
       </c>
       <c r="R21">
-        <v>8789.875406565636</v>
+        <v>2953.688478370345</v>
       </c>
       <c r="S21">
-        <v>0.04496624090223904</v>
+        <v>0.02724152596966482</v>
       </c>
       <c r="T21">
-        <v>0.04496624090223904</v>
+        <v>0.02724152596966482</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.169900666666666</v>
+        <v>1.722740333333333</v>
       </c>
       <c r="H22">
-        <v>6.509702</v>
+        <v>5.168221</v>
       </c>
       <c r="I22">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251228</v>
       </c>
       <c r="J22">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251227</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N22">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O22">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P22">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q22">
-        <v>48.48595808162155</v>
+        <v>33.09927245511079</v>
       </c>
       <c r="R22">
-        <v>436.373622734594</v>
+        <v>297.893452095997</v>
       </c>
       <c r="S22">
-        <v>0.002232350350337131</v>
+        <v>0.002747436728988963</v>
       </c>
       <c r="T22">
-        <v>0.002232350350337131</v>
+        <v>0.002747436728988962</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.169900666666666</v>
+        <v>1.722740333333333</v>
       </c>
       <c r="H23">
-        <v>6.509702</v>
+        <v>5.168221</v>
       </c>
       <c r="I23">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251228</v>
       </c>
       <c r="J23">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251227</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>277.341392</v>
       </c>
       <c r="O23">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P23">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q23">
-        <v>200.6010904650204</v>
+        <v>159.2624007004036</v>
       </c>
       <c r="R23">
-        <v>1805.409814185184</v>
+        <v>1433.361606303632</v>
       </c>
       <c r="S23">
-        <v>0.009235909370373781</v>
+        <v>0.01321972770926217</v>
       </c>
       <c r="T23">
-        <v>0.009235909370373781</v>
+        <v>0.01321972770926217</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.169900666666666</v>
+        <v>1.722740333333333</v>
       </c>
       <c r="H24">
-        <v>6.509702</v>
+        <v>5.168221</v>
       </c>
       <c r="I24">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251228</v>
       </c>
       <c r="J24">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251227</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N24">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O24">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P24">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q24">
-        <v>529.37899158108</v>
+        <v>287.4530094105672</v>
       </c>
       <c r="R24">
-        <v>4764.41092422972</v>
+        <v>2587.077084695105</v>
       </c>
       <c r="S24">
-        <v>0.02437322936524756</v>
+        <v>0.02386031164232002</v>
       </c>
       <c r="T24">
-        <v>0.02437322936524756</v>
+        <v>0.02386031164232002</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.169900666666666</v>
+        <v>1.722740333333333</v>
       </c>
       <c r="H25">
-        <v>6.509702</v>
+        <v>5.168221</v>
       </c>
       <c r="I25">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251228</v>
       </c>
       <c r="J25">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251227</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N25">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O25">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P25">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q25">
-        <v>142.0389324632504</v>
+        <v>70.80317370715865</v>
       </c>
       <c r="R25">
-        <v>1278.350392169254</v>
+        <v>637.2285633644279</v>
       </c>
       <c r="S25">
-        <v>0.006539638963348392</v>
+        <v>0.005877085069946811</v>
       </c>
       <c r="T25">
-        <v>0.006539638963348392</v>
+        <v>0.00587708506994681</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.169900666666666</v>
+        <v>1.722740333333333</v>
       </c>
       <c r="H26">
-        <v>6.509702</v>
+        <v>5.168221</v>
       </c>
       <c r="I26">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251228</v>
       </c>
       <c r="J26">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251227</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N26">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O26">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P26">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q26">
-        <v>611.008679328173</v>
+        <v>192.9889699991168</v>
       </c>
       <c r="R26">
-        <v>5499.078113953557</v>
+        <v>1736.900729992051</v>
       </c>
       <c r="S26">
-        <v>0.02813155588389392</v>
+        <v>0.01601923381199431</v>
       </c>
       <c r="T26">
-        <v>0.02813155588389392</v>
+        <v>0.01601923381199431</v>
       </c>
     </row>
   </sheetData>
